--- a/hw3/HW3.xlsx
+++ b/hw3/HW3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0efc04a175858028/Desktop/Develop/hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="8_{22CDCE9F-F859-4827-99B1-8487F2187099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22E9AC6F-99E6-4E02-81DE-C8E2129BD674}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="8_{22CDCE9F-F859-4827-99B1-8487F2187099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02F50618-BB75-44FC-BFF0-D97E7DD0223C}"/>
   <bookViews>
     <workbookView xWindow="5587" yWindow="2055" windowWidth="16380" windowHeight="10620" xr2:uid="{DDFF3F19-4386-4367-A943-A25B64825E9E}"/>
   </bookViews>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940AE3EC-0656-4189-9A7B-8ACE5D26B0EE}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
